--- a/target/classes/statisticsInfo.xlsx
+++ b/target/classes/statisticsInfo.xlsx
@@ -29,28 +29,28 @@
     <t>Названия университетов</t>
   </si>
   <si>
+    <t>PHYSICS</t>
+  </si>
+  <si>
+    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
+  </si>
+  <si>
+    <t>MEDICINE</t>
+  </si>
+  <si>
+    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
+  </si>
+  <si>
+    <t>MATHEMATICS</t>
+  </si>
+  <si>
+    <t>Казанский Университет Вычислений;</t>
+  </si>
+  <si>
     <t>LINGUISTICS</t>
   </si>
   <si>
     <t>Воронежский Литературно-Переводческий Университет;</t>
-  </si>
-  <si>
-    <t>MATHEMATICS</t>
-  </si>
-  <si>
-    <t>Казанский Университет Вычислений;</t>
-  </si>
-  <si>
-    <t>PHYSICS</t>
-  </si>
-  <si>
-    <t>Московский Выдуманный Университет;Московский Придуманный Институт;</t>
-  </si>
-  <si>
-    <t>MEDICINE</t>
-  </si>
-  <si>
-    <t>Московский Государственный Медицинский Университет;Тамбовский Университет Медицины;Самарский Медицинский Институт;</t>
   </si>
 </sst>
 </file>
@@ -134,13 +134,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>4.539999961853027</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -151,13 +151,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>4.329999923706055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -168,13 +168,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>4.539999961853027</v>
+        <v>0.0</v>
       </c>
       <c r="C4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -185,13 +185,13 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>4.329999923706055</v>
+        <v>0.0</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
